--- a/FinalResults/Fibonacci.xlsx
+++ b/FinalResults/Fibonacci.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\Fibonacci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B8E0C-53DC-4ACF-85BA-236F49F7E8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF98AFC2-1842-43C4-BD45-26A21562EB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -38,11 +38,17 @@
   <si>
     <t>Rust</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,452 +361,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="2" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>7.7059125560000004</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>6.3372752879999998</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>6.1519977570000002</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>5.3297522549999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>7.8922545360000003</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>6.2872369380000004</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>6.9779939789999998</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>5.4310850889999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>7.8530634350000001</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>6.3413360179999998</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>7.3857015730000004</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>5.450642341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>7.9390884100000001</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>6.4748551189999999</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>7.3595174659999998</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>5.4806146279999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>8.0124006590000008</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>6.472305768</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>7.3887707220000003</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>5.517337328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>7.9993330800000004</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>6.7471303499999999</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>7.220855212</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>5.5356317849999996</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>8.1942845450000004</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>7.4264245039999999</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>6.7798898799999998</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>5.4479789890000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>8.2471129189999992</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>7.6366565719999997</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>6.3410678909999998</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>5.5899623360000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>8.136592061</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>7.2609316330000002</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>6.3314502729999997</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>5.5319136169999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>8.2544983369999994</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>7.3625536030000003</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="1">
         <v>6.4617434239999998</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>5.586039618</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>8.203123476</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>6.6957601819999999</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>6.4494401100000003</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>5.5433240579999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>8.1732934949999994</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>6.3176376809999999</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="1">
         <v>6.4212260700000003</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <v>5.4952296179999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>8.5317450400000006</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>6.3237714110000001</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>6.4021505379999999</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>5.5207266190000004</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>9.4893672410000001</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="1">
         <v>6.3738210769999997</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="1">
         <v>6.7161301</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>5.5053433729999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>9.4880179610000006</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>6.397195108</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="1">
         <v>7.3817379020000002</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>5.4985693280000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>8.8153661680000006</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="1">
         <v>7.1649779359999997</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="1">
         <v>7.3913136670000004</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="1">
         <v>5.5332489650000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>8.3055216030000008</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="1">
         <v>6.4806262800000001</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="1">
         <v>7.3681089960000001</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="1">
         <v>5.5074624329999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>8.2759833720000007</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>6.6955522729999997</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="1">
         <v>7.3514555909999997</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="1">
         <v>5.5296895599999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>8.3238376859999992</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>7.0576630490000003</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="1">
         <v>7.2038995740000002</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="1">
         <v>5.5130879569999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>8.2834042589999992</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>7.2585101920000001</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>6.6889445150000002</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="1">
         <v>5.5264009109999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>8.4794460340000004</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="1">
         <v>7.3306915799999999</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="1">
         <v>6.6621443139999998</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="1">
         <v>5.4876977770000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>8.9303688010000002</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="1">
         <v>7.2999205729999996</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="1">
         <v>6.3980978479999999</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="1">
         <v>5.4600785949999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>9.4824464489999993</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1">
         <v>7.2426321079999996</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="1">
         <v>6.4665286750000002</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="1">
         <v>5.4238652109999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>9.5071348899999997</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="1">
         <v>6.5739591769999999</v>
       </c>
-      <c r="C25">
+      <c r="D25" s="1">
         <v>6.445443053</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1">
         <v>6.3467482210000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>9.3426361320000009</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="1">
         <v>6.3454221999999998</v>
       </c>
-      <c r="C26">
+      <c r="D26" s="1">
         <v>6.4186969319999996</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="1">
         <v>5.6347296619999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>9.0661163699999996</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="1">
         <v>6.3843198870000002</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="1">
         <v>6.68941871</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="1">
         <v>5.5803364880000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>8.2911349820000009</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="1">
         <v>6.3700199660000001</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="1">
         <v>7.084507211</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="1">
         <v>5.5858458310000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>8.2061193540000001</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="1">
         <v>6.4034363939999999</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="1">
         <v>7.3572289550000001</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="1">
         <v>5.6086215570000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>12.264964703</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="1">
         <v>6.3884375799999997</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="1">
         <v>7.3355942289999998</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="1">
         <v>5.7060442560000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>12.895281853</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="1">
         <v>6.4173471109999998</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="1">
         <v>8.2138482800000006</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="1">
         <v>5.6450887969999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>